--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53943.03695186771</v>
+        <v>-52384.1484847043</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4353399.409127202</v>
+        <v>4243472.071060893</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>250.5957271929918</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>376.6861762689733</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>91.51739809180266</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>84.85899356878417</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>214.815943333665</v>
       </c>
       <c r="U5" t="n">
-        <v>253.9920896132579</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1026,7 +1028,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>18.60516107055875</v>
       </c>
       <c r="C7" t="n">
-        <v>73.95594162749593</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>176.8354923153393</v>
+        <v>169.6034614358337</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.86671728342286</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.6207308593694</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.78093169703804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>9.876816676608401</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1464,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>17.20365202553293</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>67.65538200560648</v>
+        <v>182.2234290374676</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1765,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>163.7600358108613</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>20.97478045648731</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>185.2071699786023</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.057407276233985</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>20.97478045648731</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>147.411778489778</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>111.4200385268271</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>351.1381209943228</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>38.71090018026037</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2318,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>250.6831198969687</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7884964950064</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>424.2958575201043</v>
+        <v>185.0245236451972</v>
       </c>
       <c r="D26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>16.41153525754331</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>16.41153525754332</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.9836735576504</v>
+        <v>250.5957271929918</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2953,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>248.6574951475791</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>142.0902352657462</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>320.8222454140401</v>
+        <v>11.42899719143395</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T33" t="n">
         <v>128.8768572327044</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.37734733214769</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>117.619567387887</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3269,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41.22839371620024</v>
+        <v>71.07842898571478</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3429,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>29.41206276533559</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>93.83368917346974</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>394.5194885856892</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>143.5314383609388</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>233.9238547718627</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>370.5236138258639</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>19.35726169821097</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>192.1267490112585</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>76.67683354921402</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0765084323517</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>335.1231157856347</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
         <v>105.3918965517241</v>
@@ -4065,13 +4067,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0765084323517</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>181.0765084323517</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>47.85820401661477</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.66599944253918</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>152.9189507365545</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.883859595509</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.883859595509</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>842.3021853327778</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>842.3021853327778</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>414.4347557419855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>695.3567894665931</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>287.0706657662465</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,31 +4397,31 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1590.049453665805</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1344.17000724426</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1065.737006497366</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>778.7814983677961</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W4" t="n">
-        <v>506.7550939540876</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="X4" t="n">
-        <v>261.3633392875001</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>1116.783696242511</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4568,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4595,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>1480.197628733281</v>
       </c>
       <c r="U5" t="n">
-        <v>1220.558536677438</v>
+        <v>1220.975326050298</v>
       </c>
       <c r="V5" t="n">
-        <v>857.9415866112644</v>
+        <v>858.3583759841243</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0861320222976</v>
+        <v>453.5029213951576</v>
       </c>
       <c r="X5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="Y5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>455.1116977300199</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4087263891149</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>452.1535503695694</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4753,22 +4755,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.930316449007</v>
+        <v>1131.794921203953</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4805,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4838,16 +4840,16 @@
         <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.339417988001</v>
+        <v>1266.644499684471</v>
       </c>
       <c r="W8" t="n">
-        <v>854.4839633990338</v>
+        <v>861.7890450955042</v>
       </c>
       <c r="X8" t="n">
-        <v>435.3414999783445</v>
+        <v>442.6465816748149</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4887,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.1146084662527</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5528969494776</v>
+        <v>937.8153883925501</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5528969494776</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5528969494776</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X10" t="n">
-        <v>613.8890703687</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="Y10" t="n">
-        <v>613.8890703687</v>
+        <v>1110.377099909325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>890.3927724551322</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C11" t="n">
-        <v>890.3927724551322</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5045,22 +5047,22 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M11" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N11" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O11" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P11" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q11" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5075,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1334.566480014244</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X11" t="n">
-        <v>915.4240165935545</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y11" t="n">
-        <v>915.4240165935545</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5124,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>386.9570914377655</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E13" t="n">
         <v>33.94366860160834</v>
@@ -5203,16 +5205,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>33.94366860160834</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M13" t="n">
-        <v>453.9965675465116</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N13" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O13" t="n">
-        <v>1293.718715717196</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P13" t="n">
         <v>1528.990655216085</v>
@@ -5227,22 +5229,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2824383042412</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="C14" t="n">
-        <v>102.2824383042412</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="D14" t="n">
-        <v>102.2824383042412</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2824383042412</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="F14" t="n">
-        <v>102.2824383042412</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5279,22 +5281,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5315,13 +5317,13 @@
         <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X14" t="n">
-        <v>510.5685620045878</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2824383042412</v>
+        <v>507.1378928932079</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>227.6920270441282</v>
+        <v>939.976302484966</v>
       </c>
       <c r="C16" t="n">
-        <v>55.1303155273531</v>
+        <v>939.976302484966</v>
       </c>
       <c r="D16" t="n">
-        <v>55.1303155273531</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E16" t="n">
-        <v>55.1303155273531</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F16" t="n">
-        <v>55.1303155273531</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>33.94366860160834</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M16" t="n">
-        <v>341.7616130750586</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N16" t="n">
-        <v>761.8145120199619</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P16" t="n">
         <v>1528.990655216085</v>
@@ -5464,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U16" t="n">
-        <v>1451.303983658873</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.348475529303</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W16" t="n">
-        <v>892.3220711155946</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="X16" t="n">
-        <v>646.930316449007</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="Y16" t="n">
-        <v>419.5106457631153</v>
+        <v>1131.794921203953</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>510.5685620045878</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="C17" t="n">
-        <v>510.5685620045878</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="D17" t="n">
-        <v>323.4906125312521</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="E17" t="n">
-        <v>323.4906125312521</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="F17" t="n">
-        <v>323.4906125312521</v>
+        <v>37.03195877962247</v>
       </c>
       <c r="G17" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5516,16 +5518,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5549,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>929.7110254252771</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X17" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y17" t="n">
-        <v>510.5685620045878</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5585,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.5053801183834</v>
+        <v>227.6920270441282</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>55.1303155273531</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>55.1303155273531</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>55.1303155273531</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5677,19 +5679,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N19" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5698,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U19" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V19" t="n">
-        <v>1143.161828603558</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W19" t="n">
-        <v>871.1354241898498</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X19" t="n">
-        <v>625.7436695232623</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y19" t="n">
-        <v>398.3239988373705</v>
+        <v>419.5106457631153</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2190.771296621483</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="C20" t="n">
-        <v>1752.628823804906</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="D20" t="n">
-        <v>1316.719038979351</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E20" t="n">
-        <v>882.944294137646</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F20" t="n">
-        <v>455.0768645468538</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2449.993599304466</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U20" t="n">
-        <v>2190.771296621483</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V20" t="n">
-        <v>2190.771296621483</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="W20" t="n">
-        <v>2190.771296621483</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="X20" t="n">
-        <v>2190.771296621483</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="Y20" t="n">
-        <v>2190.771296621483</v>
+        <v>863.2089295691367</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933183</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.7393562644539</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.949238032415</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370972</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2634.504334502149</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>2356.071333755254</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>419.5106457631153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1752.767796536277</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C23" t="n">
-        <v>1752.767796536277</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D23" t="n">
-        <v>1316.858011710722</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E23" t="n">
-        <v>883.0832668690169</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F23" t="n">
-        <v>455.2158372782247</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2410.838523748444</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>2157.623251125244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>1752.767796536277</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>1752.767796536277</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y23" t="n">
-        <v>1752.767796536277</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>900.7186013536161</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1568898368411</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>562.2788970383638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>392.520893289101</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8138392508572</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>2402.763558715255</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>2124.330557968361</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.375049838791</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W25" t="n">
-        <v>1565.348645425083</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.956890758495</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y25" t="n">
-        <v>1092.537220072603</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1319.688691389803</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="C26" t="n">
-        <v>891.1070171270717</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="D26" t="n">
-        <v>462.52534286434</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G26" t="n">
         <v>33.94366860160834</v>
@@ -6224,19 +6226,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y26" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="27">
@@ -6361,19 +6363,19 @@
         <v>227.228030980805</v>
       </c>
       <c r="C28" t="n">
-        <v>227.228030980805</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D28" t="n">
-        <v>227.228030980805</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E28" t="n">
-        <v>227.228030980805</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F28" t="n">
-        <v>50.52097694256119</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>50.52097694256119</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6382,22 +6384,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>120.5233537662982</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L28" t="n">
-        <v>120.5233537662982</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M28" t="n">
-        <v>540.5762527112014</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N28" t="n">
-        <v>960.6291516561047</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
         <v>1528.990655216085</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>862.5977358951631</v>
+        <v>287.0706657662465</v>
       </c>
       <c r="C29" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D29" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E29" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F29" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
         <v>33.94366860160834</v>
@@ -6464,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>695.3567894665931</v>
       </c>
       <c r="Y29" t="n">
-        <v>1288.897306380071</v>
+        <v>287.0706657662465</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6528,34 +6530,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>376.2633838676462</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C31" t="n">
-        <v>203.7016723508711</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D31" t="n">
-        <v>203.7016723508711</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M31" t="n">
-        <v>453.9965675465116</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N31" t="n">
-        <v>874.0494664914149</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O31" t="n">
-        <v>1293.718715717196</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P31" t="n">
         <v>1528.990655216085</v>
@@ -6643,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U31" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V31" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W31" t="n">
-        <v>1040.893427939113</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X31" t="n">
-        <v>795.5016732725251</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y31" t="n">
-        <v>568.0820025866333</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1477.116202953456</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="C32" t="n">
-        <v>1048.534528690724</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="D32" t="n">
-        <v>1048.534528690724</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.534528690724</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="F32" t="n">
-        <v>724.4716545351282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6701,13 +6703,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K32" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L32" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M32" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
         <v>267.8706684926505</v>
@@ -6728,22 +6730,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V32" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W32" t="n">
-        <v>1477.116202953456</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X32" t="n">
-        <v>1477.116202953456</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y32" t="n">
-        <v>1477.116202953456</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J33" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K33" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O33" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.4112616530815</v>
+        <v>262.8290829477096</v>
       </c>
       <c r="C34" t="n">
-        <v>241.4112616530815</v>
+        <v>262.8290829477096</v>
       </c>
       <c r="D34" t="n">
-        <v>241.4112616530815</v>
+        <v>96.95109014923227</v>
       </c>
       <c r="E34" t="n">
-        <v>241.4112616530815</v>
+        <v>96.95109014923227</v>
       </c>
       <c r="F34" t="n">
-        <v>241.4112616530815</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>241.4112616530815</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M34" t="n">
-        <v>815.3347072823371</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N34" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6880,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U34" t="n">
-        <v>992.2117929153466</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V34" t="n">
-        <v>705.2562847857771</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W34" t="n">
-        <v>433.2298803720686</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X34" t="n">
-        <v>433.2298803720686</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y34" t="n">
-        <v>433.2298803720686</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1334.566480014244</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="C35" t="n">
-        <v>1334.566480014244</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="D35" t="n">
-        <v>905.9848057515121</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="E35" t="n">
-        <v>477.4031314887804</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="F35" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6977,10 +6979,10 @@
         <v>1334.566480014244</v>
       </c>
       <c r="X35" t="n">
-        <v>1334.566480014244</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y35" t="n">
-        <v>1334.566480014244</v>
+        <v>507.1378928932079</v>
       </c>
     </row>
     <row r="36">
@@ -6993,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7002,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7020,16 +7022,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.3833729168607</v>
+        <v>236.2145344268032</v>
       </c>
       <c r="C37" t="n">
-        <v>199.8216614000857</v>
+        <v>63.65282291002814</v>
       </c>
       <c r="D37" t="n">
-        <v>33.94366860160834</v>
+        <v>63.65282291002814</v>
       </c>
       <c r="E37" t="n">
         <v>33.94366860160834</v>
@@ -7096,19 +7098,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O37" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P37" t="n">
         <v>1528.990655216085</v>
@@ -7123,22 +7125,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U37" t="n">
-        <v>1418.750429333523</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V37" t="n">
-        <v>1131.794921203953</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W37" t="n">
-        <v>1037.013416988327</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="X37" t="n">
-        <v>791.6216623217397</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="Y37" t="n">
-        <v>564.2019916358479</v>
+        <v>428.0331531457903</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1288.897306380071</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C38" t="n">
-        <v>890.3927724551322</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D38" t="n">
-        <v>890.3927724551322</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E38" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
         <v>33.94366860160834</v>
@@ -7199,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.183430080417</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="Y38" t="n">
-        <v>1288.897306380071</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="39">
@@ -7230,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7239,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7257,19 +7259,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q39" t="n">
         <v>1580.010651986078</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.8488427225424</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="C40" t="n">
-        <v>774.8488427225424</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="D40" t="n">
-        <v>608.9708499240651</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="E40" t="n">
-        <v>439.2128461748023</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F40" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
@@ -7336,16 +7338,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>269.215608100497</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M40" t="n">
-        <v>689.2685070454004</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N40" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
         <v>1528.990655216085</v>
@@ -7354,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U40" t="n">
-        <v>1675.765608785789</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V40" t="n">
-        <v>1675.765608785789</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.478886794009</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X40" t="n">
-        <v>1194.087132127421</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.6674614415294</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>752.0722867939837</v>
+        <v>809.6077765701262</v>
       </c>
       <c r="C41" t="n">
-        <v>323.4906125312521</v>
+        <v>809.6077765701262</v>
       </c>
       <c r="D41" t="n">
-        <v>323.4906125312521</v>
+        <v>809.6077765701262</v>
       </c>
       <c r="E41" t="n">
-        <v>323.4906125312521</v>
+        <v>809.6077765701262</v>
       </c>
       <c r="F41" t="n">
-        <v>323.4906125312521</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G41" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7412,19 +7414,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L41" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M41" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N41" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U41" t="n">
-        <v>1134.24202645431</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V41" t="n">
-        <v>771.6250763881362</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W41" t="n">
-        <v>752.0722867939837</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X41" t="n">
-        <v>752.0722867939837</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y41" t="n">
-        <v>752.0722867939837</v>
+        <v>809.6077765701262</v>
       </c>
     </row>
     <row r="42">
@@ -7467,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7476,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.94366860160834</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C43" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D43" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E43" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G43" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7567,25 +7569,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>726.9120049407049</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N43" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O43" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7597,22 +7599,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V43" t="n">
-        <v>885.9154747824084</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W43" t="n">
-        <v>613.8890703687</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X43" t="n">
-        <v>368.4973157021125</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="Y43" t="n">
-        <v>141.0776450162207</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>457.7485958401613</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C44" t="n">
-        <v>380.2972488207532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D44" t="n">
-        <v>197.3916847476707</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>373.0176073706446</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>373.0176073706446</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>373.0176073706446</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>552.2833507186728</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>640.6541599132439</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>457.7485958401613</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>457.7485958401613</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>457.7485958401613</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W44" t="n">
-        <v>457.7485958401613</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X44" t="n">
-        <v>457.7485958401613</v>
+        <v>798.7514368497835</v>
       </c>
       <c r="Y44" t="n">
-        <v>457.7485958401613</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>310.1532853644389</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>203.6968242010812</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>108.6065353476344</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48612067458814</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>14.48612067458814</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>399.0812805311022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>607.133255635067</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>607.133255635067</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>724.3060337294069</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>724.3060337294069</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>724.3060337294069</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>541.4004696563243</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>358.4949055832417</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>358.4949055832417</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.1532853644389</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.3908827773471</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C46" t="n">
-        <v>526.829171260572</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D46" t="n">
-        <v>360.9511784620947</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E46" t="n">
-        <v>191.1931747128319</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>14.48612067458814</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>14.48612067458814</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>14.48612067458814</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M46" t="n">
-        <v>18.3160288209901</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N46" t="n">
-        <v>197.5817721690183</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O46" t="n">
-        <v>376.8475155170465</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>724.3060337294069</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="U46" t="n">
-        <v>724.3060337294069</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V46" t="n">
-        <v>724.3060337294069</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W46" t="n">
-        <v>724.3060337294069</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X46" t="n">
-        <v>724.3060337294069</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y46" t="n">
-        <v>724.3060337294069</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8137,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8216,11 +8218,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8371,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,11 +8455,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -8468,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8535,19 +8537,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,17 +8695,17 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M11" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8851,19 +8853,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>237.6484237362512</v>
       </c>
       <c r="M13" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9082,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M16" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9164,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9237,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O18" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9325,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -10030,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201043</v>
+        <v>34.867532687005</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10112,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10285,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6484237362511</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10349,16 +10351,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -10422,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10504,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O34" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10668,19 +10670,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10744,22 +10746,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10905,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10984,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11060,7 +11062,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
         <v>236.2898988798406</v>
@@ -11075,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11224,19 +11226,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N43" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.897594199674131</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>3.868594087274712</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>171.4408475870669</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>20.69767679399541</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22598,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>98.38303443999457</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22753,13 +22755,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>72.78996144619913</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3.050611522026713</v>
       </c>
       <c r="U5" t="n">
-        <v>2.637990042895325</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>171.2952714612385</v>
       </c>
       <c r="C7" t="n">
-        <v>96.88015277411138</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,19 +22995,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23033,13 +23035,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>182.1552882501725</v>
+        <v>189.3873191296781</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.0337152483744</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>2.598482011123082</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23239,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397.2556430830206</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23264,13 +23266,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>419.5601807166793</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23315,10 +23317,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>153.6324423760744</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -23467,7 +23469,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>329.7284710573622</v>
+        <v>215.1604240255011</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0.4591770596312585</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9605817679433</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>246.3435169986976</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>394.3264457867348</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23899,7 +23901,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>153.965203041374</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>136.6741745584958</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23969,22 +23971,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>285.9638145361417</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>7.852659571188951</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>151.1895323515369</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24262,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>108.3076606685431</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424235</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.465190568306582</v>
+        <v>248.7365244432137</v>
       </c>
       <c r="D26" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24494,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24506,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>41.23124748277456</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24601,7 +24603,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>154.424559144064</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -24616,7 +24618,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>122.0916173089859</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>10.77737453076054</v>
+        <v>183.1653208954191</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24692,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24731,19 +24733,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -24898,10 +24900,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>20.64864522199224</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>100.8476018541754</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24926,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>102.7665098808442</v>
+        <v>412.1597581034504</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24968,7 +24970,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -24977,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25078,22 +25080,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>112.5626361657137</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>20.88358517864221</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25157,13 +25159,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>382.3603615786841</v>
+        <v>352.5103263091696</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>138.6483609464345</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -25363,16 +25365,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>175.4724511961016</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>39.24155950272171</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -25451,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>271.4196004255436</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>8.960382473179465</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>35.38228559770872</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25637,16 +25639,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>53.06514146902038</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>381.4496383448661</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25837,22 +25839,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>33.01872496777435</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>357.0842145391969</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>250.4741785449482</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>248.360488960936</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>36.79004642334004</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25928,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>69.0801466777084</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25953,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04983432626892</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.393018291786206</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>77.36271741195665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.2344330892581</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>90.50170122077475</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -26086,10 +26088,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>366983.2187160666</v>
+        <v>366983.2187160667</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366983.2187160667</v>
+        <v>366983.2187160666</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>516256.6222846163</v>
+        <v>366983.2187160667</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>516256.6222846163</v>
+        <v>366983.2187160667</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156617.225270041</v>
+        <v>366983.2187160667</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>72121.4025372441</v>
       </c>
       <c r="C2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="D2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="E2" t="n">
+        <v>72121.40253724411</v>
+      </c>
+      <c r="F2" t="n">
         <v>72121.4025372441</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>72121.40253724408</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>72121.40253724411</v>
       </c>
-      <c r="H2" t="n">
-        <v>101457.3685373715</v>
-      </c>
       <c r="I2" t="n">
-        <v>101457.3685373715</v>
+        <v>72121.40253724411</v>
       </c>
       <c r="J2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="K2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="L2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="M2" t="n">
-        <v>72121.40253724412</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="N2" t="n">
+        <v>72121.4025372441</v>
+      </c>
+      <c r="O2" t="n">
         <v>72121.40253724411</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>72121.4025372441</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30779.21106988305</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>18764.36858177456</v>
       </c>
       <c r="H4" t="n">
-        <v>26396.92784106698</v>
+        <v>18764.36858177456</v>
       </c>
       <c r="I4" t="n">
-        <v>26396.92784106698</v>
+        <v>18764.36858177456</v>
       </c>
       <c r="J4" t="n">
         <v>18764.36858177456</v>
@@ -26457,7 +26459,7 @@
         <v>18764.36858177456</v>
       </c>
       <c r="P4" t="n">
-        <v>8008.059200918457</v>
+        <v>18764.36858177456</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-148259.0548414628</v>
       </c>
       <c r="C6" t="n">
-        <v>-6067.754181752789</v>
+        <v>-6067.754181752804</v>
       </c>
       <c r="D6" t="n">
-        <v>-6067.754181752804</v>
+        <v>-6067.754181752811</v>
       </c>
       <c r="E6" t="n">
+        <v>27559.8458182472</v>
+      </c>
+      <c r="F6" t="n">
         <v>27559.84581824719</v>
       </c>
-      <c r="F6" t="n">
-        <v>27559.84581824718</v>
-      </c>
       <c r="G6" t="n">
+        <v>27559.84581824717</v>
+      </c>
+      <c r="H6" t="n">
         <v>27559.84581824721</v>
       </c>
-      <c r="H6" t="n">
-        <v>-31147.25322347062</v>
-      </c>
       <c r="I6" t="n">
-        <v>34475.51613454684</v>
+        <v>27559.84581824721</v>
       </c>
       <c r="J6" t="n">
-        <v>-19817.73615402704</v>
+        <v>-83454.61952674299</v>
       </c>
       <c r="K6" t="n">
-        <v>27559.84581824721</v>
+        <v>27559.84581824719</v>
       </c>
       <c r="L6" t="n">
         <v>27559.84581824719</v>
       </c>
       <c r="M6" t="n">
-        <v>27559.84581824722</v>
+        <v>27559.84581824719</v>
       </c>
       <c r="N6" t="n">
+        <v>27559.84581824719</v>
+      </c>
+      <c r="O6" t="n">
         <v>27559.84581824721</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>27559.84581824719</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11761.70015627761</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34857,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,11 +34938,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35173,11 +35175,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -35188,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35255,19 +35257,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,17 +35415,17 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M11" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>237.6484237362512</v>
       </c>
       <c r="M13" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M16" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O18" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36045,22 +36047,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36750,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201043</v>
+        <v>34.867532687005</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36832,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -37005,7 +37007,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6484237362511</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37069,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O34" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37388,19 +37390,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37464,22 +37466,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37625,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37704,19 +37706,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37780,7 +37782,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
         <v>236.2898988798406</v>
@@ -37795,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,19 +37946,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N43" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.897594199674131</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>3.868594087274712</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52384.1484847043</v>
+        <v>-58619.46598385925</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493689</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250.5957271929918</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>401.3388979860635</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.51739809180266</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>110.822087801554</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>397.9158510059552</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.815943333665</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.60516107055875</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.4536358816701</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>169.6034614358337</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.6207308593694</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>30.86548814452293</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>300.9563571845483</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>9.876816676608401</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1508,7 +1508,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V12" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W12" t="n">
         <v>183.4695267241379</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>17.20365202553293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>265.5899999594844</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>182.2234290374676</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>19.76988317734234</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>163.7600358108613</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>21.39555907027767</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>407.2606697395771</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>3.057407276233985</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>20.97478045648731</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>18.7520398957083</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>351.1381209943228</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.71090018026037</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>218.668117639083</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>149.9234878582038</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2538,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>87.23270835517597</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>185.0245236451972</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>102.5852382553438</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>16.41153525754331</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>41.26176538196641</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>250.5957271929918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>378.7606637428541</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>106.8100166239331</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -3000,25 +3000,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>142.0902352657462</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>11.42899719143395</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.37734733214769</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>159.582856075998</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>71.07842898571478</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>378.3480422637228</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>116.2832520304838</v>
       </c>
       <c r="E37" t="n">
-        <v>29.41206276533559</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>143.5314383609388</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>13.60055808817358</v>
       </c>
       <c r="E40" t="n">
-        <v>159.1000412385906</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>370.5236138258639</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>94.97713768769013</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.1267490112585</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>138.6374390706959</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.1231157856347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>152.9189507365545</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>123.6892937134921</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>1291.790603831868</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>695.3567894665931</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>287.0706657662465</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>723.7160605214299</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>551.1543490046548</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1388.81010065622</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>1116.783696242511</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>1116.783696242511</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y4" t="n">
-        <v>1116.783696242511</v>
+        <v>723.7160605214299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.36045797446834</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="C5" t="n">
-        <v>34.36045797446834</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="D5" t="n">
-        <v>34.36045797446834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1480.197628733281</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1220.975326050298</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>858.3583759841243</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>453.5029213951576</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>34.36045797446834</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y5" t="n">
-        <v>34.36045797446834</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4661,7 +4661,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4752,25 +4752,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>700.5271480882413</v>
       </c>
       <c r="X7" t="n">
-        <v>1131.794921203953</v>
+        <v>535.4224653794837</v>
       </c>
       <c r="Y7" t="n">
-        <v>1131.794921203953</v>
+        <v>535.4224653794837</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.36045797446834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C8" t="n">
-        <v>34.36045797446834</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D8" t="n">
-        <v>34.36045797446834</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E8" t="n">
-        <v>34.36045797446834</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4837,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1266.644499684471</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>861.7890450955042</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>442.6465816748149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.36045797446834</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1110.377099909325</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C10" t="n">
-        <v>937.8153883925501</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4968,13 +4968,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -5004,10 +5004,10 @@
         <v>1110.377099909325</v>
       </c>
       <c r="X10" t="n">
-        <v>1110.377099909325</v>
+        <v>1079.199839157282</v>
       </c>
       <c r="Y10" t="n">
-        <v>1110.377099909325</v>
+        <v>851.7801684713901</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1855120707613</v>
+        <v>1194.389092843565</v>
       </c>
       <c r="C11" t="n">
-        <v>873.1855120707613</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D11" t="n">
-        <v>873.1855120707613</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E11" t="n">
-        <v>863.2089295691367</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5041,52 +5041,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K11" t="n">
-        <v>874.0494664914149</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L11" t="n">
-        <v>1107.976466382457</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M11" t="n">
-        <v>1107.976466382457</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N11" t="n">
-        <v>1107.976466382457</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="O11" t="n">
-        <v>1528.02936532736</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P11" t="n">
-        <v>1528.02936532736</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>1194.389092843565</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>1194.389092843565</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>386.9570914377655</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="C13" t="n">
-        <v>369.5796651493484</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="D13" t="n">
-        <v>203.7016723508711</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5199,22 +5199,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>689.2685070454004</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N13" t="n">
-        <v>1109.321405990304</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
         <v>1528.990655216085</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U13" t="n">
-        <v>1418.750429333523</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.794921203953</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W13" t="n">
-        <v>859.7685167902448</v>
+        <v>842.1043726775226</v>
       </c>
       <c r="X13" t="n">
-        <v>614.3767621236573</v>
+        <v>596.7126180109351</v>
       </c>
       <c r="Y13" t="n">
-        <v>386.9570914377655</v>
+        <v>369.2929473250434</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>507.1378928932079</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C14" t="n">
-        <v>507.1378928932079</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D14" t="n">
-        <v>507.1378928932079</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E14" t="n">
-        <v>507.1378928932079</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F14" t="n">
-        <v>507.1378928932079</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
         <v>323.0738231583921</v>
@@ -5281,22 +5281,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W14" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X14" t="n">
-        <v>915.4240165935545</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y14" t="n">
-        <v>507.1378928932079</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>939.976302484966</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>939.976302484966</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
@@ -5442,16 +5442,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>1108.937756271182</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N16" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O16" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
         <v>1528.990655216085</v>
@@ -5460,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U16" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.794921203953</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.794921203953</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X16" t="n">
-        <v>1131.794921203953</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y16" t="n">
-        <v>1131.794921203953</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>464.8993883704147</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C17" t="n">
-        <v>464.8993883704147</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="D17" t="n">
-        <v>464.8993883704147</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="E17" t="n">
-        <v>464.8993883704147</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F17" t="n">
-        <v>37.03195877962247</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
         <v>33.94366860160834</v>
@@ -5518,16 +5518,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L17" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M17" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N17" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5560,7 +5560,7 @@
         <v>873.1855120707613</v>
       </c>
       <c r="Y17" t="n">
-        <v>464.8993883704147</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>227.6920270441282</v>
+        <v>707.7326516402958</v>
       </c>
       <c r="C19" t="n">
-        <v>55.1303155273531</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="D19" t="n">
-        <v>55.1303155273531</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E19" t="n">
-        <v>55.1303155273531</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G19" t="n">
         <v>33.94366860160834</v>
@@ -5673,25 +5673,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5700,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>707.7326516402958</v>
       </c>
       <c r="X19" t="n">
-        <v>646.930316449007</v>
+        <v>707.7326516402958</v>
       </c>
       <c r="Y19" t="n">
-        <v>419.5106457631153</v>
+        <v>707.7326516402958</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>863.2089295691367</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C20" t="n">
-        <v>863.2089295691367</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2089295691367</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E20" t="n">
-        <v>863.2089295691367</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="F20" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
         <v>33.94366860160834</v>
@@ -5755,16 +5755,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V20" t="n">
-        <v>863.2089295691367</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W20" t="n">
-        <v>863.2089295691367</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X20" t="n">
-        <v>863.2089295691367</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y20" t="n">
-        <v>863.2089295691367</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5916,19 +5916,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M22" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5937,25 +5937,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1317.06517487429</v>
       </c>
       <c r="U22" t="n">
-        <v>1451.303983658873</v>
+        <v>1317.06517487429</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.348475529303</v>
+        <v>1317.06517487429</v>
       </c>
       <c r="W22" t="n">
-        <v>892.3220711155946</v>
+        <v>1045.038770460581</v>
       </c>
       <c r="X22" t="n">
-        <v>646.930316449007</v>
+        <v>799.6470157939939</v>
       </c>
       <c r="Y22" t="n">
-        <v>419.5106457631153</v>
+        <v>572.2273451081021</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1697.183430080417</v>
+        <v>613.9632093877782</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.974446717864</v>
+        <v>185.3815351250465</v>
       </c>
       <c r="D23" t="n">
-        <v>890.3927724551322</v>
+        <v>185.3815351250465</v>
       </c>
       <c r="E23" t="n">
-        <v>461.8110981924006</v>
+        <v>185.3815351250465</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>185.3815351250465</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>185.3815351250465</v>
       </c>
       <c r="H23" t="n">
         <v>33.94366860160834</v>
@@ -6022,19 +6022,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>1033.105672808467</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>613.9632093877782</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.183430080417</v>
+        <v>613.9632093877782</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G25" t="n">
         <v>33.94366860160834</v>
@@ -6147,25 +6147,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N25" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O25" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
@@ -6174,25 +6174,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U25" t="n">
-        <v>1172.870982911978</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V25" t="n">
-        <v>885.9154747824084</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W25" t="n">
-        <v>613.8890703687</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="X25" t="n">
-        <v>368.4973157021125</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.0776450162207</v>
+        <v>884.4397056785397</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1050.816632468548</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="C26" t="n">
-        <v>863.9231742410761</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="D26" t="n">
-        <v>435.3414999783445</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="E26" t="n">
-        <v>435.3414999783445</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="F26" t="n">
-        <v>435.3414999783445</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6259,19 +6259,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1477.116202953456</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V26" t="n">
-        <v>1477.116202953456</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W26" t="n">
-        <v>1477.116202953456</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X26" t="n">
-        <v>1477.116202953456</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y26" t="n">
-        <v>1477.116202953456</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>227.228030980805</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C28" t="n">
-        <v>210.6507226398521</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D28" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E28" t="n">
         <v>210.6507226398521</v>
@@ -6384,16 +6384,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>1146.964903885608</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N28" t="n">
         <v>1181.483761245743</v>
@@ -6411,25 +6411,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1292.062614956869</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U28" t="n">
-        <v>1013.629614209975</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="V28" t="n">
-        <v>726.6741060804052</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="W28" t="n">
-        <v>454.6477016666967</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X28" t="n">
-        <v>454.6477016666967</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y28" t="n">
-        <v>227.228030980805</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.0706657662465</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C29" t="n">
-        <v>33.94366860160834</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D29" t="n">
-        <v>33.94366860160834</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6466,22 +6466,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q29" t="n">
         <v>1528.02936532736</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>1114.499252887282</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W29" t="n">
-        <v>1114.499252887282</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X29" t="n">
-        <v>695.3567894665931</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.0706657662465</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6545,19 +6545,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L30" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M30" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N30" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1113.00182921349</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="C31" t="n">
-        <v>940.4401176967148</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="D31" t="n">
-        <v>774.5621248982375</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E31" t="n">
-        <v>604.8041211489747</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F31" t="n">
         <v>428.0970671107308</v>
@@ -6621,25 +6621,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>120.5233537662982</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L31" t="n">
-        <v>120.5233537662982</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M31" t="n">
-        <v>540.5762527112014</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N31" t="n">
-        <v>960.6291516561047</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.298400881886</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P31" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6648,25 +6648,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T31" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U31" t="n">
-        <v>1675.765608785789</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V31" t="n">
-        <v>1675.765608785789</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W31" t="n">
-        <v>1675.765608785789</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X31" t="n">
-        <v>1532.240118618369</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.820447932477</v>
+        <v>705.7439765407341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>446.8859415858535</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C32" t="n">
-        <v>446.8859415858535</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D32" t="n">
-        <v>446.8859415858535</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E32" t="n">
-        <v>446.8859415858535</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F32" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6700,19 +6700,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>1292.327975491451</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X32" t="n">
-        <v>873.1855120707613</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y32" t="n">
-        <v>873.1855120707613</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,37 +6767,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>262.8290829477096</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C34" t="n">
-        <v>262.8290829477096</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D34" t="n">
-        <v>96.95109014923227</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E34" t="n">
-        <v>96.95109014923227</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F34" t="n">
         <v>33.94366860160834</v>
@@ -6858,19 +6858,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6885,25 +6885,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T34" t="n">
-        <v>1292.062614956869</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U34" t="n">
-        <v>1013.629614209975</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V34" t="n">
-        <v>726.6741060804052</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W34" t="n">
-        <v>454.6477016666967</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X34" t="n">
-        <v>454.6477016666967</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y34" t="n">
-        <v>454.6477016666967</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>507.1378928932079</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C35" t="n">
-        <v>507.1378928932079</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D35" t="n">
-        <v>507.1378928932079</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E35" t="n">
-        <v>507.1378928932079</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F35" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W35" t="n">
-        <v>1334.566480014244</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="X35" t="n">
-        <v>915.4240165935545</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="Y35" t="n">
-        <v>507.1378928932079</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>236.2145344268032</v>
+        <v>810.3304425493375</v>
       </c>
       <c r="C37" t="n">
-        <v>63.65282291002814</v>
+        <v>637.7687310325624</v>
       </c>
       <c r="D37" t="n">
-        <v>63.65282291002814</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E37" t="n">
-        <v>33.94366860160834</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7098,19 +7098,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M37" t="n">
-        <v>540.5762527112014</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N37" t="n">
-        <v>960.6291516561047</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
         <v>1528.990655216085</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V37" t="n">
-        <v>1172.870982911978</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W37" t="n">
-        <v>900.8445784982696</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X37" t="n">
-        <v>655.4528238316821</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y37" t="n">
-        <v>428.0331531457903</v>
+        <v>1002.149061268325</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>435.3414999783445</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C38" t="n">
-        <v>435.3414999783445</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D38" t="n">
-        <v>435.3414999783445</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7174,25 +7174,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K38" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P38" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q38" t="n">
         <v>1528.02936532736</v>
@@ -7207,19 +7207,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1393.464329137293</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>988.6088745483262</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X38" t="n">
-        <v>843.6276236786911</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y38" t="n">
-        <v>435.3414999783445</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7259,16 +7259,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O39" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>194.6507809638211</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="C40" t="n">
-        <v>194.6507809638211</v>
+        <v>452.9507836376039</v>
       </c>
       <c r="D40" t="n">
-        <v>194.6507809638211</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="E40" t="n">
-        <v>33.94366860160834</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G40" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H40" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7356,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U40" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V40" t="n">
-        <v>885.9154747824084</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W40" t="n">
-        <v>613.8890703687</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X40" t="n">
-        <v>613.8890703687</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y40" t="n">
-        <v>386.4693996828083</v>
+        <v>625.5124951543789</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>809.6077765701262</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C41" t="n">
-        <v>809.6077765701262</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D41" t="n">
-        <v>809.6077765701262</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E41" t="n">
-        <v>809.6077765701262</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F41" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M41" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N41" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O41" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V41" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W41" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X41" t="n">
-        <v>1217.893900270473</v>
+        <v>1297.527826422454</v>
       </c>
       <c r="Y41" t="n">
-        <v>809.6077765701262</v>
+        <v>889.2417027221078</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7496,16 +7496,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.341879988165</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C43" t="n">
-        <v>851.7801684713901</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D43" t="n">
-        <v>685.9021756729128</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E43" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7593,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U43" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V43" t="n">
-        <v>1410.227921950848</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W43" t="n">
-        <v>1410.227921950848</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X43" t="n">
-        <v>1410.227921950848</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y43" t="n">
-        <v>1216.160498707152</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.94366860160834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C44" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D44" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E44" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F44" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7651,16 +7651,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O44" t="n">
         <v>687.9235674375537</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V44" t="n">
-        <v>1217.893900270473</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W44" t="n">
-        <v>1217.893900270473</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X44" t="n">
-        <v>798.7514368497835</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="Y44" t="n">
-        <v>460.2432390865162</v>
+        <v>890.8095618279922</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7733,13 +7733,13 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
         <v>1159.957753041174</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.8484307043673</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C46" t="n">
-        <v>546.2867191875922</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4087263891149</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E46" t="n">
-        <v>210.6507226398521</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H46" t="n">
         <v>33.94366860160834</v>
@@ -7812,46 +7812,46 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>1383.478474775834</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.478474775834</v>
+        <v>1145.706113143562</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.478474775834</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.478474775834</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="X46" t="n">
-        <v>1138.086720109246</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="Y46" t="n">
-        <v>910.6670494233545</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,22 +8218,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8379,16 +8379,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,22 +8455,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8616,16 +8616,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L11" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8929,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9166,19 +9166,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="O18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N22" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N22" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,10 +10041,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N28" t="n">
-        <v>34.867532687005</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="O30" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>424.2958575201043</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P33" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,10 +10518,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10746,22 +10746,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201043</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10907,19 +10907,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10992,10 +10992,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K41" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L41" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11144,19 +11144,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11299,7 +11299,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
@@ -11381,16 +11381,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11460,22 +11460,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.4408475870669</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>30.2117889912364</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22600,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.38303443999457</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.39712506893852</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22789,13 +22789,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>33.63483597134473</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>3.050611522026713</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.2952714612385</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -23004,10 +23004,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>79.48420123825159</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23023,16 +23023,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>189.3873191296781</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23181,10 +23181,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>2.598482011123082</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>212.0723489753987</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>132.8046909038626</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>419.5601807166793</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23320,7 +23320,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>153.6324423760744</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.71614041008695</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>215.1604240255011</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>384.4333792860007</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4591770596312585</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>262.6903939779962</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>22.1763276537107</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>394.3264457867348</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>153.965203041374</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23940,25 +23940,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>250.5541004738631</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23980,10 +23980,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>117.5800191063261</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.852659571188951</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>151.1895323515369</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -24177,16 +24177,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>24.75253431824626</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>136.3153651530121</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24262,16 +24262,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>182.0734320143954</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>248.7365244432137</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>294.798614807625</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>154.424559144064</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>234.3869053574593</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>183.1653208954191</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>50.67633365043361</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24697,7 +24697,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>64.02607777767417</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>100.8476018541754</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>412.1597581034504</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>357.5213748288652</v>
       </c>
     </row>
     <row r="33">
@@ -25080,13 +25080,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>112.5626361657137</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.83779588133126</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25165,16 +25165,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>352.5103263091696</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>22.45885777935422</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>47.93596084000873</v>
       </c>
       <c r="E37" t="n">
-        <v>138.6483609464345</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>409.6671142159454</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>271.4196004255436</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>150.6186547823189</v>
       </c>
       <c r="E40" t="n">
-        <v>8.960382473179465</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,16 +25639,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>53.06514146902038</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>319.9739010987923</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -25845,7 +25845,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25854,7 +25854,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.01872496777435</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25885,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>276.3135997157865</v>
       </c>
       <c r="Y44" t="n">
-        <v>69.0801466777084</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>90.50170122077475</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>151.9593770259336</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366983.2187160666</v>
+        <v>366983.2187160667</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366983.2187160667</v>
+        <v>366983.2187160666</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>366983.2187160667</v>
+        <v>366983.2187160666</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>366983.2187160667</v>
+        <v>366983.2187160668</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>366983.2187160666</v>
+        <v>366983.2187160667</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366983.2187160667</v>
+        <v>366983.2187160666</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72121.4025372441</v>
+        <v>72121.40253724411</v>
       </c>
       <c r="C2" t="n">
         <v>72121.4025372441</v>
@@ -26322,25 +26322,25 @@
         <v>72121.4025372441</v>
       </c>
       <c r="E2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="F2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="G2" t="n">
-        <v>72121.40253724408</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="H2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="I2" t="n">
-        <v>72121.40253724411</v>
+        <v>72121.4025372441</v>
       </c>
       <c r="J2" t="n">
         <v>72121.4025372441</v>
       </c>
       <c r="K2" t="n">
-        <v>72121.4025372441</v>
+        <v>72121.40253724408</v>
       </c>
       <c r="L2" t="n">
         <v>72121.4025372441</v>
@@ -26349,10 +26349,10 @@
         <v>72121.4025372441</v>
       </c>
       <c r="N2" t="n">
+        <v>72121.40253724408</v>
+      </c>
+      <c r="O2" t="n">
         <v>72121.4025372441</v>
-      </c>
-      <c r="O2" t="n">
-        <v>72121.40253724411</v>
       </c>
       <c r="P2" t="n">
         <v>72121.4025372441</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148259.0548414628</v>
+        <v>-148998.4114533784</v>
       </c>
       <c r="C6" t="n">
-        <v>-6067.754181752804</v>
+        <v>-6807.110793668458</v>
       </c>
       <c r="D6" t="n">
-        <v>-6067.754181752811</v>
+        <v>-6807.110793668464</v>
       </c>
       <c r="E6" t="n">
-        <v>27559.8458182472</v>
+        <v>26820.48920633153</v>
       </c>
       <c r="F6" t="n">
-        <v>27559.84581824719</v>
+        <v>26820.48920633154</v>
       </c>
       <c r="G6" t="n">
-        <v>27559.84581824717</v>
+        <v>26820.48920633154</v>
       </c>
       <c r="H6" t="n">
-        <v>27559.84581824721</v>
+        <v>26820.48920633154</v>
       </c>
       <c r="I6" t="n">
-        <v>27559.84581824721</v>
+        <v>26820.48920633154</v>
       </c>
       <c r="J6" t="n">
-        <v>-83454.61952674299</v>
+        <v>-84193.97613865865</v>
       </c>
       <c r="K6" t="n">
-        <v>27559.84581824719</v>
+        <v>26820.48920633153</v>
       </c>
       <c r="L6" t="n">
-        <v>27559.84581824719</v>
+        <v>26820.48920633154</v>
       </c>
       <c r="M6" t="n">
-        <v>27559.84581824719</v>
+        <v>26820.48920633154</v>
       </c>
       <c r="N6" t="n">
-        <v>27559.84581824719</v>
+        <v>26820.48920633153</v>
       </c>
       <c r="O6" t="n">
-        <v>27559.84581824721</v>
+        <v>26820.48920633153</v>
       </c>
       <c r="P6" t="n">
-        <v>27559.84581824719</v>
+        <v>26820.48920633153</v>
       </c>
     </row>
   </sheetData>
@@ -34780,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,22 +34938,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35099,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,22 +35175,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35336,16 +35336,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L11" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35649,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35810,19 +35810,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35886,19 +35886,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="O18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36284,22 +36284,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N22" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N22" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36761,10 +36761,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N28" t="n">
-        <v>34.867532687005</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,13 +36846,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697544</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="O30" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37080,10 +37080,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P33" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -37238,10 +37238,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37466,22 +37466,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201043</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697544</v>
@@ -37627,19 +37627,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -37712,10 +37712,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K41" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L41" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37864,19 +37864,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -38019,7 +38019,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
@@ -38101,16 +38101,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38180,22 +38180,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
